--- a/Jogos_do_Dia/2022-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,7 +763,7 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="N3" t="n">
         <v>1.8</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -924,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE4" t="n">
         <v>1.5</v>
@@ -936,7 +936,7 @@
         <v>2.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>3.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1043,7 +1043,7 @@
         <v>2.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1245,25 +1245,25 @@
         <v>3.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.5</v>
@@ -1313,7 +1313,7 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N8" t="n">
         <v>1.7</v>
@@ -1355,25 +1355,25 @@
         <v>2.98</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I9" t="n">
         <v>1.01</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>

--- a/Jogos_do_Dia/2022-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.31</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,10 +763,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -826,7 +826,7 @@
         <v>3.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -876,7 +876,7 @@
         <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>3.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1046,7 +1046,7 @@
         <v>3.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
         <v>1.1</v>
@@ -1093,10 +1093,10 @@
         <v>2.45</v>
       </c>
       <c r="M6" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="O6" t="n">
         <v>1.58</v>
@@ -1135,25 +1135,25 @@
         <v>2.37</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1266,7 +1266,7 @@
         <v>3.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1295,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1376,7 +1376,7 @@
         <v>3.45</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
         <v>1.01</v>
@@ -1423,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="N9" t="n">
-        <v>2.77</v>
+        <v>3.09</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
